--- a/Data/Tables/Achievement.xlsx
+++ b/Data/Tables/Achievement.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\Survivor\Data\Game\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEF7F9F-9CF7-4C74-A708-438349A530EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Achievement" sheetId="8" r:id="rId1"/>
     <sheet name="AchievementAward" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +45,6 @@
     <t>子成就</t>
   </si>
   <si>
-    <t>子成就需要相同所有者</t>
-  </si>
-  <si>
     <t>统计ID</t>
   </si>
   <si>
@@ -62,9 +66,6 @@
     <t>SubAchievement</t>
   </si>
   <si>
-    <t>SubSameOwner</t>
-  </si>
-  <si>
     <t>StatID</t>
   </si>
   <si>
@@ -83,6 +84,9 @@
     <t>用力描述</t>
   </si>
   <si>
+    <t>2;3;</t>
+  </si>
+  <si>
     <t>UI/Icon/IconAchievement/Spr_Achievement_00001.png</t>
   </si>
   <si>
@@ -116,6 +120,24 @@
     <t>架子鼓得分＞10</t>
   </si>
   <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>NGSText</t>
+  </si>
+  <si>
+    <t>uint32[]</t>
+  </si>
+  <si>
+    <t>组ID</t>
+  </si>
+  <si>
+    <t>物品ID列表</t>
+  </si>
+  <si>
+    <t>物品数量列表</t>
+  </si>
+  <si>
     <t>ItemID</t>
   </si>
   <si>
@@ -125,29 +147,38 @@
     <t>获得xxx</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1;</t>
+  </si>
+  <si>
+    <t>2;</t>
   </si>
   <si>
     <t>xxx</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>3;</t>
+  </si>
+  <si>
+    <t>4;</t>
+  </si>
+  <si>
+    <t>5;</t>
+  </si>
+  <si>
+    <t>6;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,28 +187,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,26 +533,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,40 +850,36 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Achievement" displayName="Achievement" ref="A2:J8" totalsRowShown="0">
-  <autoFilter ref="A2:J8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IsHide"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SubAchievement" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SubSameOwner"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="StatID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="StatValue"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AwardGroupID"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IconPath"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Achievement" displayName="Achievement" ref="A2:I8" totalsRowShown="0">
+  <autoFilter ref="A2:I8"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="7" name="IsHide"/>
+    <tableColumn id="6" name="SubAchievement" dataDxfId="1"/>
+    <tableColumn id="4" name="StatID"/>
+    <tableColumn id="5" name="StatValue"/>
+    <tableColumn id="8" name="AwardGroupID"/>
+    <tableColumn id="10" name="IconPath"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AchievementAward" displayName="AchievementAward" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AchievementAward" displayName="AchievementAward" ref="A3:D9" totalsRowShown="0">
+  <autoFilter ref="A3:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ItemID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Counts" dataDxfId="0"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="2" name="ItemID"/>
+    <tableColumn id="3" name="Counts" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,31 +1137,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="46.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="29.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="51.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="51.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,187 +1185,178 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
+      <c r="F6">
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
+      <c r="F8">
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
+      <c r="I8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -740,120 +1364,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
